--- a/envo/document/data/list/12.xlsx
+++ b/envo/document/data/list/12.xlsx
@@ -72,9 +72,6 @@
     <t>Tàu chở hàng - Cargo ship</t>
   </si>
   <si>
-    <t>Tàu cánh ngầm - Submarine</t>
-  </si>
-  <si>
     <t>Tên lửa - Rocket</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Tàu điện ngầm - Metro</t>
+  </si>
+  <si>
+    <t>Tàu ngầm - Submarine</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,17 +453,17 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -513,7 +513,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -543,12 +543,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/envo/document/data/list/12.xlsx
+++ b/envo/document/data/list/12.xlsx
@@ -45,9 +45,6 @@
     <t>Ferry – phà</t>
   </si>
   <si>
-    <t>Speedboat – tàu siêu tốc</t>
-  </si>
-  <si>
     <t>Airplane – máy bay</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Tàu ngầm - Submarine</t>
+  </si>
+  <si>
+    <t>Speedboat – tàu cao tốc</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -433,7 +433,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -453,17 +453,17 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -478,22 +478,22 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -508,12 +508,12 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -528,27 +528,27 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
